--- a/Documentação/Tabela_Trabalhos_Relacionados.xlsx
+++ b/Documentação/Tabela_Trabalhos_Relacionados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MeusProjetos\Trabalho-de-Graduacao\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966675E-D89E-43E1-9E41-26396FE0047D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12014929-5D3F-4AC4-A54C-C7EBC6A3DCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{AD57AB2D-0E31-4FC9-8EDF-4EE0427B97FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD57AB2D-0E31-4FC9-8EDF-4EE0427B97FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Pontos Positivos</t>
   </si>
@@ -119,13 +119,19 @@
   <si>
     <t>Aplicaram a inteligência artificial na àrea da saúde;
 Realizaram a leitura de pontos de referência também para o corpo;</t>
+  </si>
+  <si>
+    <t>Autores não relataram pontos de dificuldade ou melhorias.</t>
+  </si>
+  <si>
+    <t>Trabalho não se enquadra como pesquisa científica.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +154,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -406,6 +420,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,22 +444,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,68 +763,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435936C-75EC-4B54-8F8E-BD88A1F1291E}">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="57" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -822,7 +833,9 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
@@ -833,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -856,7 +869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -875,9 +888,11 @@
       <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -892,9 +907,11 @@
       <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -921,7 +938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -938,7 +955,9 @@
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Documentação/Tabela_Trabalhos_Relacionados.xlsx
+++ b/Documentação/Tabela_Trabalhos_Relacionados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MeusProjetos\Trabalho-de-Graduacao\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12014929-5D3F-4AC4-A54C-C7EBC6A3DCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A23AF-218D-4277-BA24-28D1614635D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD57AB2D-0E31-4FC9-8EDF-4EE0427B97FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Pontos Positivos</t>
   </si>
@@ -64,30 +64,6 @@
   </si>
   <si>
     <t>Implementou efetivamente técnicas para criar uma base de dados bem estruturada;</t>
-  </si>
-  <si>
-    <t>Tópicos correlatos</t>
-  </si>
-  <si>
-    <t>Libras</t>
-  </si>
-  <si>
-    <t>MediaPipe</t>
-  </si>
-  <si>
-    <t>TensorFlow</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>OpenCV</t>
-  </si>
-  <si>
-    <t>Criação de Base de Dados</t>
-  </si>
-  <si>
-    <t>Python</t>
   </si>
   <si>
     <t>Desenvolveram uma documentação robusta de utilização da ferramenta;</t>
@@ -125,13 +101,46 @@
   </si>
   <si>
     <t>Trabalho não se enquadra como pesquisa científica.</t>
+  </si>
+  <si>
+    <t>Tópicos Correlatos</t>
+  </si>
+  <si>
+    <t>Criação de Base de Dados;
+Libras;
+Tensorflow; 
+Python;</t>
+  </si>
+  <si>
+    <t>Criação de Base de Dados; 
+Libras; 
+Python;</t>
+  </si>
+  <si>
+    <t>MediaPipe; 
+Tensorflow; 
+Python;</t>
+  </si>
+  <si>
+    <t>OpenCV;</t>
+  </si>
+  <si>
+    <t>Libras; 
+OpenCV; 
+MediaPipe; 
+Tensorflow; 
+Python;</t>
+  </si>
+  <si>
+    <t>Criação de Base de Dados; 
+Python;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,21 +151,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -177,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -220,76 +214,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -377,6 +301,101 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -388,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -396,55 +415,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -761,211 +774,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435936C-75EC-4B54-8F8E-BD88A1F1291E}">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="8" width="11.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>1</v>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="19" t="s">
+    <row r="7" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="8" spans="2:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:H2"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Documentação/Tabela_Trabalhos_Relacionados.xlsx
+++ b/Documentação/Tabela_Trabalhos_Relacionados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MeusProjetos\Trabalho-de-Graduacao\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767A23AF-218D-4277-BA24-28D1614635D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4699D815-6F8A-475D-8095-56AD9C3C19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD57AB2D-0E31-4FC9-8EDF-4EE0427B97FD}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Cruz (2020)</t>
   </si>
   <si>
-    <t>Nascimento e Teles ()</t>
-  </si>
-  <si>
     <t>Marengoni e Stringhini (2009)</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   <si>
     <t>Criação de Base de Dados; 
 Python;</t>
+  </si>
+  <si>
+    <t>Nascimento et al. (2020)</t>
   </si>
 </sst>
 </file>
@@ -777,13 +777,13 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42" style="1" bestFit="1" customWidth="1"/>
@@ -793,10 +793,10 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -824,69 +824,69 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Tabela_Trabalhos_Relacionados.xlsx
+++ b/Documentação/Tabela_Trabalhos_Relacionados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MeusProjetos\Trabalho-de-Graduacao\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4699D815-6F8A-475D-8095-56AD9C3C19A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083DFFE7-A7CC-4548-9FC9-516A2DC29D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD57AB2D-0E31-4FC9-8EDF-4EE0427B97FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Pontos Positivos</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>Nascimento et al. (2020)</t>
+  </si>
+  <si>
+    <t>Fernandes (2019)</t>
+  </si>
+  <si>
+    <t>Pereira (2017)</t>
+  </si>
+  <si>
+    <t>Santos (2019)</t>
+  </si>
+  <si>
+    <t>Bispo (2018)</t>
+  </si>
+  <si>
+    <t>Júnior (2021)</t>
   </si>
 </sst>
 </file>
@@ -171,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -403,11 +418,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -459,6 +524,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435936C-75EC-4B54-8F8E-BD88A1F1291E}">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,87 +882,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="11" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Documentação/Tabela_Trabalhos_Relacionados.xlsx
+++ b/Documentação/Tabela_Trabalhos_Relacionados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\MeusProjetos\Trabalho-de-Graduacao\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083DFFE7-A7CC-4548-9FC9-516A2DC29D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795CA86-9164-4297-91FD-C047ABC99D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD57AB2D-0E31-4FC9-8EDF-4EE0427B97FD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Pontos Positivos</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Cruz (2020)</t>
   </si>
   <si>
-    <t>Marengoni e Stringhini (2009)</t>
-  </si>
-  <si>
     <t>Nogueira (2020)</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>Implementou efetivamente técnicas para criar uma base de dados bem estruturada;</t>
-  </si>
-  <si>
-    <t>Desenvolveram uma documentação robusta de utilização da ferramenta;</t>
   </si>
   <si>
     <t>Atingiu 99% de acuracidade com seu método;
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>Autores não relataram pontos de dificuldade ou melhorias.</t>
-  </si>
-  <si>
-    <t>Trabalho não se enquadra como pesquisa científica.</t>
   </si>
   <si>
     <t>Tópicos Correlatos</t>
@@ -117,9 +108,6 @@
     <t>MediaPipe; 
 Tensorflow; 
 Python;</t>
-  </si>
-  <si>
-    <t>OpenCV;</t>
   </si>
   <si>
     <t>Libras; 
@@ -149,6 +137,25 @@
   </si>
   <si>
     <t>Júnior (2021)</t>
+  </si>
+  <si>
+    <t>LSTM;</t>
+  </si>
+  <si>
+    <t>Criou um modelo para identificar comentários ofensivos na língua portuguesa, baseando-se em um modelo já existente porém com dados da língua inglesa;</t>
+  </si>
+  <si>
+    <t>Realizou um trabalho de predição de preços de energia elétrica utilizando um modelo LSTM, comparando os resultados não só com os dados reais, mas também com os resultados de um modelo simples em Bootstrap;</t>
+  </si>
+  <si>
+    <t>Desenvolveu uma ferramenta web para predição no mercado de ações, utilizando uma rede LSTM como base em sua execução;
+Demonstra durante o desenvolvimento de seu trabalho as dificuldades encontradas e como elas foram mitigadas;</t>
+  </si>
+  <si>
+    <t>Não utilizou nenhum outro modelo para realizar comparativos de resultados. Com isso, não fica confirmada completamente a eficácia do modelo LSTM implementado;</t>
+  </si>
+  <si>
+    <t>Realizou uma análise comparativa de resultados dos modelos LSTM, ARIMA e RNA, exibindo a efetividade do modelo LSTM para a situação aplicada;</t>
   </si>
 </sst>
 </file>
@@ -851,29 +858,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D435936C-75EC-4B54-8F8E-BD88A1F1291E}">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>0</v>
@@ -883,127 +890,133 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13" t="s">
+    <row r="8" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="2:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
